--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20361"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613D423B-CDF1-4687-8058-ECE713A36194}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A6ACD4B-A1CD-4A6F-891C-2B5FD8CBE9D2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18648" windowHeight="3768" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18648" windowHeight="3768" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="1" r:id="rId1"/>
@@ -92,9 +92,6 @@
     <t>UserName</t>
   </si>
   <si>
-    <t xml:space="preserve"> Jack </t>
-  </si>
-  <si>
     <t>Prefix</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>abcd</t>
+  </si>
+  <si>
+    <t>Jack</t>
   </si>
 </sst>
 </file>
@@ -498,7 +498,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -613,8 +613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{883A19B5-AF4B-44E8-B030-6B33EBF8DC94}">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -624,7 +624,7 @@
         <v>20</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -647,15 +647,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2">
         <v>20</v>
@@ -663,10 +663,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B07F17-3898-4787-9376-03CB679963F1}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -690,31 +690,31 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4">
         <v>20</v>
